--- a/Task.xlsx
+++ b/Task.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Truong hoc\OneDrive\Fullstack\Buoi 25-API\2.Bai tap nop\BC37_JavaScript_Capstone_NguyenLeHoangHai\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/775a58f3260b7d31/Fullstack/Buoi 25-API/2.Bai tap nop/BC37_JavaScript_Capstone_NguyenLeHoangHai/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F503978-E3CF-415C-8049-3B1B2FF4D5CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{9F503978-E3CF-415C-8049-3B1B2FF4D5CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EB008601-E52C-4D05-A34F-8E8B1D56F5E8}"/>
   <bookViews>
-    <workbookView xWindow="2475" yWindow="3540" windowWidth="18000" windowHeight="9360" xr2:uid="{7D401D98-467C-4007-9FE0-D9744F3C016B}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="18000" windowHeight="9360" xr2:uid="{7D401D98-467C-4007-9FE0-D9744F3C016B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>Tasks Name</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>https://bc37-javascript-capstone-hainlh.vercel.app/</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=0sLiSAYi57U&amp;feature=youtu.be</t>
   </si>
 </sst>
 </file>
@@ -97,7 +100,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,13 +123,6 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="9"/>
-      <color theme="10"/>
       <name val="Verdana"/>
       <family val="2"/>
     </font>
@@ -215,7 +211,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -236,7 +232,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -558,7 +553,7 @@
   <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -604,7 +599,7 @@
       <c r="N1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="O1" s="10" t="s">
         <v>14</v>
       </c>
     </row>
@@ -612,25 +607,25 @@
       <c r="A2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="9">
         <v>44844</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="9">
         <v>44865</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="8">
         <v>1</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="9">
         <v>44844</v>
       </c>
-      <c r="G2" s="10">
+      <c r="G2" s="9">
         <v>44865</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="8">
         <v>1</v>
       </c>
       <c r="I2" s="7" t="s">
@@ -639,90 +634,93 @@
       <c r="N2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="O2" s="10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="9"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="9"/>
+    <row r="3" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="8"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="8"/>
       <c r="N3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="8"/>
+      <c r="O3" s="10" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="9"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="8"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="8"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="9"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="8"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="9"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="8"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="8"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="9"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="8"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="9"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="8"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="8"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="9"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="8"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="9"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="8"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="9"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="8"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="O2" r:id="rId1" xr:uid="{A2E06986-7D16-4AE3-B7B1-32DBA92D63B7}"/>
     <hyperlink ref="O1" r:id="rId2" xr:uid="{034234FC-D11F-4A0F-8569-8715B45A0C95}"/>
+    <hyperlink ref="O3" r:id="rId3" xr:uid="{E715975A-D45A-42D4-9E31-51521E68EC59}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/Task.xlsx
+++ b/Task.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/775a58f3260b7d31/Fullstack/Buoi 25-API/2.Bai tap nop/BC37_JavaScript_Capstone_NguyenLeHoangHai/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{9F503978-E3CF-415C-8049-3B1B2FF4D5CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EB008601-E52C-4D05-A34F-8E8B1D56F5E8}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{9F503978-E3CF-415C-8049-3B1B2FF4D5CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{68449A39-15FD-4A5C-BB32-0E734AC5FD40}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="18000" windowHeight="9360" xr2:uid="{7D401D98-467C-4007-9FE0-D9744F3C016B}"/>
+    <workbookView xWindow="3510" yWindow="3540" windowWidth="18000" windowHeight="9360" xr2:uid="{7D401D98-467C-4007-9FE0-D9744F3C016B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -90,7 +90,7 @@
     <t>https://bc37-javascript-capstone-hainlh.vercel.app/</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=0sLiSAYi57U&amp;feature=youtu.be</t>
+    <t>https://www.youtube.com/watch?v=0sLiSAYi57U</t>
   </si>
 </sst>
 </file>
@@ -553,7 +553,7 @@
   <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
